--- a/biology/Zoologie/Deraeocorinae/Deraeocorinae.xlsx
+++ b/biology/Zoologie/Deraeocorinae/Deraeocorinae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Deraeocorinés
-Les Deraeocorinés, ou Deraeocorinae, sont une sous-famille d'insectes hétéroptères, de la famille des Miridae. Elle compte environ 120 genres et 800 espèces[2].
+Les Deraeocorinés, ou Deraeocorinae, sont une sous-famille d'insectes hétéroptères, de la famille des Miridae. Elle compte environ 120 genres et 800 espèces.
 </t>
         </is>
       </c>
@@ -512,20 +524,91 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La sous-famille des Deraeocorinae a été décrite par les entomologistes anglais John William Douglas et John Scott en 1865. Elle comprend 6 tribus. 
-Des fossiles remontant jusqu'au Priabonien (Éocène, -38 à -34 millions d'années) ont été retrouvés dans de l'ambre à Kalinigrad et en République Dominicaine, et des dépôts lacustres au Colorado[3]. 
-Liste des tribus
-Selon BioLib                    (21 mai 2022)[4] :
+Des fossiles remontant jusqu'au Priabonien (Éocène, -38 à -34 millions d'années) ont été retrouvés dans de l'ambre à Kalinigrad et en République Dominicaine, et des dépôts lacustres au Colorado. 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Deraeocorinae</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Deraeocorinae</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Systématique</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Liste des tribus</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon BioLib                    (21 mai 2022) :
 tribu Clivinematini Reuter, 1876
 tribu Deraeocorini Douglas &amp; Scott, 1865 - avec le genre Deraeocoris
 tribu Hyaliodini Carvalho &amp; Drake, 1943
 tribu Saturniomirini Carvalho, 1952
 tribu Surinamellini Carvalho &amp; Rosas, 1962
-tribu Termatophylini Reuter, 1884
-Liste des genres
-Selon BioLib                    (21 mai 2022)[4] :
+tribu Termatophylini Reuter, 1884</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Deraeocorinae</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Deraeocorinae</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Systématique</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Liste des genres</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon BioLib                    (21 mai 2022) :
 tribu Clivinematini Reuter, 1876
 genre Adlargidea Schaffner, 1980
 genre Admetus Distant, 1883
